--- a/medicine/Pharmacie/Brunet_(pharmacies)/Brunet_(pharmacies).xlsx
+++ b/medicine/Pharmacie/Brunet_(pharmacies)/Brunet_(pharmacies).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Brunet est une bannière franchisée québécoise spécialisée dans l'opération de pharmacies, filiale de Metro[2]. Fondée en 1855 à Québec, dans le quartier Saint-Roch, c'est l'une des plus anciennes bannières commerciales du Québec[3].
+Brunet est une bannière franchisée québécoise spécialisée dans l'opération de pharmacies, filiale de Metro. Fondée en 1855 à Québec, dans le quartier Saint-Roch, c'est l'une des plus anciennes bannières commerciales du Québec.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1855, Wilfrid-Étienne Brunet se fait céder le commerce de son beau-frère pharmacien Pierre-Olivier Giroux, située sur la rue du Pont dans le faubourg Saint-Roch à Québec. Il obtient sa licence de chimiste et droguiste le 8 mai 1858. En 1873, il fait construire ce qui est aujourd'hui la plus ancienne pharmacie toujours en opération au Québec, située aux coins des rues Saint-Joseph et de la Chapelle. Le 1er mai 1879, son fils Wilfrid-Jean-Baptiste s'associe avec lui. Ils forment ensemble « W. Brunet  &amp; Cie ». Le 1er mai 1884, son autre fils Georges-Henri se joint à l'entreprise familiale. Le fils de ce dernier, puis son petit-fils Willie Brunet, continueront à diriger l'entreprise jusqu'aux années 1980. La bannière compte alors 11 pharmacies[4]. L'entreprise s'est incorporée en 1917.
-En 1987, Brunet est acheté par McMahon, filiale pharmaceutique de Metro-Richelieu. La chaîne connaîtra ensuite une forte progression, passant d'une dizaine à une cinquantaine dans les années 1990[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1855, Wilfrid-Étienne Brunet se fait céder le commerce de son beau-frère pharmacien Pierre-Olivier Giroux, située sur la rue du Pont dans le faubourg Saint-Roch à Québec. Il obtient sa licence de chimiste et droguiste le 8 mai 1858. En 1873, il fait construire ce qui est aujourd'hui la plus ancienne pharmacie toujours en opération au Québec, située aux coins des rues Saint-Joseph et de la Chapelle. Le 1er mai 1879, son fils Wilfrid-Jean-Baptiste s'associe avec lui. Ils forment ensemble « W. Brunet  &amp; Cie ». Le 1er mai 1884, son autre fils Georges-Henri se joint à l'entreprise familiale. Le fils de ce dernier, puis son petit-fils Willie Brunet, continueront à diriger l'entreprise jusqu'aux années 1980. La bannière compte alors 11 pharmacies. L'entreprise s'est incorporée en 1917.
+En 1987, Brunet est acheté par McMahon, filiale pharmaceutique de Metro-Richelieu. La chaîne connaîtra ensuite une forte progression, passant d'une dizaine à une cinquantaine dans les années 1990.
 </t>
         </is>
       </c>
